--- a/Docs/CF_RM_GANTT_CHART.xlsx
+++ b/Docs/CF_RM_GANTT_CHART.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28816"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/497b244499e04cb1/Classes/ENGR 331/"/>
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,17 +419,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
